--- a/ExcelTeste/servidor/planilha exemplo.xlsx
+++ b/ExcelTeste/servidor/planilha exemplo.xlsx
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1667937303" val="1054" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1667937303" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1667937303" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1667937303"/>
+      <pm:revision xmlns:pm="smNativeData" day="1667937778" val="1054" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1667937778" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1667937778" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1667937778"/>
     </ext>
   </extLst>
 </workbook>
@@ -104,7 +104,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1667937303" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1667937778" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -119,7 +119,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1667937303" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1667937778" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -128,26 +128,15 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1667937303" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -163,26 +152,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1667937303"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1667937303"/>
+          <pm:border xmlns:pm="smNativeData" id="1667937778"/>
         </ext>
       </extLst>
     </border>
@@ -200,7 +170,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1667937303" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1667937778" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -467,7 +437,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -682,7 +652,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1667937303" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1667937778" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -691,16 +661,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1667937303" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1667937303" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1667937303" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1667937303" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1667937778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1667937778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1667937778" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1667937778" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1667937303" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1667937778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -766,7 +736,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1667937303" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1667937778" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -775,16 +745,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1667937303" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1667937303" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1667937303" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1667937303" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1667937778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1667937778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1667937778" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1667937778" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1667937303" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1667937778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -840,7 +810,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1667937303" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1667937778" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -849,16 +819,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1667937303" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1667937303" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1667937303" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1667937303" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1667937778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1667937778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1667937778" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1667937778" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1667937303" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1667937778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/ExcelTeste/servidor/planilha exemplo.xlsx
+++ b/ExcelTeste/servidor/planilha exemplo.xlsx
@@ -9,23 +9,27 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="regra" sheetId="2" r:id="rId5"/>
-    <sheet name="dataflow" sheetId="3" r:id="rId6"/>
+    <sheet name="Plan2" sheetId="2" r:id="rId5"/>
+    <sheet name="regra" sheetId="3" r:id="rId6"/>
+    <sheet name="dataflow" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1667937778" val="1054" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1667937778" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1667937778" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1667937778"/>
+      <pm:revision xmlns:pm="smNativeData" day="1668435673" val="1054" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1668435673" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1668435673" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1668435673"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
   <si>
     <t>Loja</t>
   </si>
@@ -49,6 +53,18 @@
   </si>
   <si>
     <t>acidental</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>Rótulos de linha</t>
+  </si>
+  <si>
+    <t>Soma de Valor</t>
+  </si>
+  <si>
+    <t>Total geral</t>
   </si>
   <si>
     <t>para cara coluna uma classe</t>
@@ -104,7 +120,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1667937778" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1668435673" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -119,7 +135,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1667937778" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1668435673" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -128,15 +144,54 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1668435673" type="1" fgLvl="100" fgClr="00DCE6F1" bgLvl="100" bgClr="00DCE6F1"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1668435673" type="1" fgLvl="100" fgClr="00DCE6F1" bgLvl="100" bgClr="00DCE6F1"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1668435673" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -152,7 +207,110 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1667937778"/>
+          <pm:border xmlns:pm="smNativeData" id="1668435673"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF95B3D7"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1668435673">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="95B3D7"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF95B3D7"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1668435673">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="95B3D7"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF95B3D7"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1668435673">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="95B3D7"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF95B3D7"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1668435673">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="95B3D7"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1668435673"/>
         </ext>
       </extLst>
     </border>
@@ -170,12 +328,200 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1667937778" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1668435673" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="1668435673" count="5">
+        <pm:color name="Cor 24" rgb="95B3D7"/>
+        <pm:color name="Cor 25" rgb="DCE6F1"/>
+        <pm:color name="Cor 26" rgb="D8D8D8"/>
+        <pm:color name="Cor 27" rgb="BFBFBF"/>
+        <pm:color name="Cor 28" rgb="4F81BD"/>
+      </pm:colors>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="17">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C18" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Loja" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Carrefour"/>
+        <s v="Leroy Merlin"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tipo_de_gasto" numFmtId="0">
+      <sharedItems count="3">
+        <s v="acidental"/>
+        <s v="emergial"/>
+        <s v="fixo"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Valor" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" count="12">
+        <n v="2"/>
+        <n v="3"/>
+        <n v="45"/>
+        <n v="62"/>
+        <n v="94"/>
+        <n v="875"/>
+        <n v="876"/>
+        <n v="918"/>
+        <n v="935"/>
+        <n v="967"/>
+        <n v="1748"/>
+        <n v="1749"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica 1" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" missingCaption="" showMissing="1" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="4" indent="0" multipleFieldFilters="0">
+  <location ref="A1:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" sortType="ascending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1" sortType="ascending">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" sortType="ascending">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <dataFields count="1">
+    <dataField name="Soma de Valor" fld="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,7 +783,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -575,8 +921,8 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>1748</v>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -652,7 +998,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1667937778" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668435673" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -661,16 +1007,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1667937778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1667937778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1667937778" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1667937778" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668435673" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668435673" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668435673" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668435673" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1667937778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668435673" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -680,6 +1026,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="15.40"/>
+  <cols>
+    <col min="1" max="1" width="16.464286" customWidth="1"/>
+    <col min="2" max="2" width="12.553571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9353</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668435673" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1668435673" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668435673" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668435673" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668435673" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668435673" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -696,47 +1127,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1667937778" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668435673" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -745,16 +1176,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1667937778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1667937778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1667937778" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1667937778" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668435673" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668435673" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668435673" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668435673" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1667937778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668435673" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -763,7 +1194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -778,39 +1209,39 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1667937778" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668435673" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -819,16 +1250,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1667937778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1667937778" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1667937778" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1667937778" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668435673" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668435673" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668435673" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668435673" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1667937778" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668435673" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
